--- a/definition测试/【1】Tos2PP/[1006PP]output_Tuple.xlsx
+++ b/definition测试/【1】Tos2PP/[1006PP]output_Tuple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="27945" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,13 +1234,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1708,28 +1701,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1738,118 +1734,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2213,21 +2206,21 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="255.777777777778" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="108.777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.775" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="108.775" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.66666666666667" customWidth="1"/>
     <col min="5" max="10" width="14.3333333333333" customWidth="1"/>
     <col min="11" max="12" width="14.3333333333333" style="1" customWidth="1"/>
     <col min="13" max="68" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:12">
+    <row r="1" ht="27" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="129.6" spans="1:12">
+    <row r="2" ht="121.5" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +2296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="129.6" spans="1:12">
+    <row r="3" ht="121.5" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2341,7 +2334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="129.6" spans="1:12">
+    <row r="4" ht="121.5" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2379,7 +2372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="100.8" spans="1:12">
+    <row r="5" ht="94.5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -2417,7 +2410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="158.4" spans="1:12">
+    <row r="6" ht="148.5" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -2455,7 +2448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="158.4" spans="1:12">
+    <row r="7" ht="148.5" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -2493,7 +2486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="158.4" spans="1:12">
+    <row r="8" ht="148.5" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2531,7 +2524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="86.4" spans="1:12">
+    <row r="9" ht="81" spans="1:12">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -2569,7 +2562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="86.4" spans="1:12">
+    <row r="10" ht="81" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -2607,7 +2600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="86.4" spans="1:12">
+    <row r="11" ht="81" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -2645,7 +2638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="216" spans="1:12">
+    <row r="12" ht="202.5" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
@@ -2683,7 +2676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="216" spans="1:12">
+    <row r="13" ht="202.5" spans="1:12">
       <c r="A13" s="3" t="s">
         <v>73</v>
       </c>
@@ -2721,7 +2714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="216" spans="1:12">
+    <row r="14" ht="202.5" spans="1:12">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -2759,7 +2752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="216" spans="1:12">
+    <row r="15" ht="202.5" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="216" spans="1:12">
+    <row r="16" ht="202.5" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
@@ -2835,7 +2828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="216" spans="1:12">
+    <row r="17" ht="202.5" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2873,7 +2866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" ht="115.2" spans="1:12">
+    <row r="18" ht="108" spans="1:12">
       <c r="A18" s="3" t="s">
         <v>99</v>
       </c>
@@ -2911,7 +2904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" ht="115.2" spans="1:12">
+    <row r="19" ht="108" spans="1:12">
       <c r="A19" s="3" t="s">
         <v>99</v>
       </c>
@@ -2949,7 +2942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="115.2" spans="1:12">
+    <row r="20" ht="108" spans="1:12">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -2987,7 +2980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="72" spans="1:12">
+    <row r="21" ht="67.5" spans="1:12">
       <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
@@ -3025,7 +3018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="72" spans="1:12">
+    <row r="22" ht="67.5" spans="1:12">
       <c r="A22" s="3" t="s">
         <v>99</v>
       </c>
@@ -3063,7 +3056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="72" spans="1:12">
+    <row r="23" ht="67.5" spans="1:12">
       <c r="A23" s="3" t="s">
         <v>99</v>
       </c>
@@ -3101,7 +3094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="72" spans="1:12">
+    <row r="24" ht="67.5" spans="1:12">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -3139,7 +3132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="72" spans="1:12">
+    <row r="25" ht="67.5" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>125</v>
       </c>
@@ -3177,7 +3170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" ht="72" spans="1:12">
+    <row r="26" ht="67.5" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>125</v>
       </c>
@@ -3215,7 +3208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" ht="100.8" spans="1:12">
+    <row r="27" ht="94.5" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>136</v>
       </c>
@@ -3253,7 +3246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="100.8" spans="1:12">
+    <row r="28" ht="94.5" spans="1:12">
       <c r="A28" s="3" t="s">
         <v>136</v>
       </c>
@@ -3291,7 +3284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" ht="115.2" spans="1:12">
+    <row r="29" ht="108" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>136</v>
       </c>
@@ -3329,7 +3322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="100.8" spans="1:12">
+    <row r="30" ht="94.5" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>136</v>
       </c>
@@ -3367,7 +3360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" ht="115.2" spans="1:12">
+    <row r="31" ht="108" spans="1:12">
       <c r="A31" s="3" t="s">
         <v>152</v>
       </c>
@@ -3405,7 +3398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" ht="115.2" spans="1:12">
+    <row r="32" ht="108" spans="1:12">
       <c r="A32" s="3" t="s">
         <v>152</v>
       </c>
@@ -3443,7 +3436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" ht="115.2" spans="1:12">
+    <row r="33" ht="108" spans="1:12">
       <c r="A33" s="3" t="s">
         <v>152</v>
       </c>
@@ -3481,7 +3474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" ht="57.6" spans="1:12">
+    <row r="34" ht="54" spans="1:12">
       <c r="A34" s="3" t="s">
         <v>162</v>
       </c>
@@ -3519,7 +3512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" ht="72" spans="1:12">
+    <row r="35" ht="67.5" spans="1:12">
       <c r="A35" s="3" t="s">
         <v>162</v>
       </c>
@@ -3557,7 +3550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" ht="115.2" spans="1:12">
+    <row r="36" ht="108" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>175</v>
       </c>
@@ -3595,7 +3588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" ht="115.2" spans="1:12">
+    <row r="37" ht="108" spans="1:12">
       <c r="A37" s="3" t="s">
         <v>175</v>
       </c>
@@ -3633,7 +3626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" ht="115.2" spans="1:12">
+    <row r="38" ht="108" spans="1:12">
       <c r="A38" s="3" t="s">
         <v>183</v>
       </c>
@@ -3671,7 +3664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" ht="115.2" spans="1:12">
+    <row r="39" ht="108" spans="1:12">
       <c r="A39" s="3" t="s">
         <v>183</v>
       </c>
@@ -3709,7 +3702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" ht="86.4" spans="1:12">
+    <row r="40" ht="81" spans="1:12">
       <c r="A40" s="3" t="s">
         <v>192</v>
       </c>
@@ -3747,7 +3740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" ht="129.6" spans="1:12">
+    <row r="41" ht="121.5" spans="1:12">
       <c r="A41" s="3" t="s">
         <v>198</v>
       </c>
@@ -3785,7 +3778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" ht="129.6" spans="1:12">
+    <row r="42" ht="121.5" spans="1:12">
       <c r="A42" s="3" t="s">
         <v>198</v>
       </c>
@@ -3823,7 +3816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" ht="129.6" spans="1:12">
+    <row r="43" ht="121.5" spans="1:12">
       <c r="A43" s="3" t="s">
         <v>198</v>
       </c>
@@ -3861,7 +3854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" ht="129.6" spans="1:12">
+    <row r="44" ht="121.5" spans="1:12">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
@@ -3899,7 +3892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" ht="115.2" spans="1:12">
+    <row r="45" ht="108" spans="1:12">
       <c r="A45" s="3" t="s">
         <v>214</v>
       </c>
@@ -3937,7 +3930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" ht="115.2" spans="1:12">
+    <row r="46" ht="108" spans="1:12">
       <c r="A46" s="3" t="s">
         <v>214</v>
       </c>
@@ -3975,7 +3968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" ht="115.2" spans="1:12">
+    <row r="47" ht="108" spans="1:12">
       <c r="A47" s="3" t="s">
         <v>214</v>
       </c>
@@ -4013,7 +4006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" ht="115.2" spans="1:12">
+    <row r="48" ht="108" spans="1:12">
       <c r="A48" s="3" t="s">
         <v>214</v>
       </c>
@@ -4051,7 +4044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" ht="129.6" spans="1:12">
+    <row r="49" ht="121.5" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>214</v>
       </c>
@@ -4089,7 +4082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" ht="115.2" spans="1:12">
+    <row r="50" ht="108" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>214</v>
       </c>
@@ -4127,7 +4120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" ht="115.2" spans="1:12">
+    <row r="51" ht="108" spans="1:12">
       <c r="A51" s="3" t="s">
         <v>214</v>
       </c>
@@ -4165,7 +4158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" ht="187.2" spans="1:12">
+    <row r="52" ht="175.5" spans="1:12">
       <c r="A52" s="3" t="s">
         <v>232</v>
       </c>
@@ -4203,7 +4196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" ht="187.2" spans="1:12">
+    <row r="53" ht="175.5" spans="1:12">
       <c r="A53" s="3" t="s">
         <v>232</v>
       </c>
@@ -4241,7 +4234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" ht="187.2" spans="1:12">
+    <row r="54" ht="175.5" spans="1:12">
       <c r="A54" s="3" t="s">
         <v>232</v>
       </c>
@@ -4279,7 +4272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" ht="187.2" spans="1:12">
+    <row r="55" ht="175.5" spans="1:12">
       <c r="A55" s="3" t="s">
         <v>232</v>
       </c>
@@ -4317,7 +4310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" ht="172.8" spans="1:12">
+    <row r="56" ht="162" spans="1:12">
       <c r="A56" s="3" t="s">
         <v>246</v>
       </c>
@@ -4355,7 +4348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" ht="172.8" spans="1:12">
+    <row r="57" ht="162" spans="1:12">
       <c r="A57" s="3" t="s">
         <v>246</v>
       </c>
@@ -4393,7 +4386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" ht="172.8" spans="1:12">
+    <row r="58" ht="162" spans="1:12">
       <c r="A58" s="3" t="s">
         <v>246</v>
       </c>
@@ -4431,7 +4424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" ht="172.8" spans="1:12">
+    <row r="59" ht="162" spans="1:12">
       <c r="A59" s="3" t="s">
         <v>246</v>
       </c>
@@ -4469,7 +4462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" ht="172.8" spans="1:12">
+    <row r="60" ht="162" spans="1:12">
       <c r="A60" s="3" t="s">
         <v>246</v>
       </c>
@@ -4507,7 +4500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" ht="172.8" spans="1:12">
+    <row r="61" ht="162" spans="1:12">
       <c r="A61" s="3" t="s">
         <v>246</v>
       </c>
@@ -4545,7 +4538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" ht="172.8" spans="1:12">
+    <row r="62" ht="162" spans="1:12">
       <c r="A62" s="3" t="s">
         <v>246</v>
       </c>
@@ -4583,7 +4576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" ht="129.6" spans="1:12">
+    <row r="63" ht="121.5" spans="1:12">
       <c r="A63" s="3" t="s">
         <v>263</v>
       </c>
@@ -4621,7 +4614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" ht="129.6" spans="1:12">
+    <row r="64" ht="121.5" spans="1:12">
       <c r="A64" s="3" t="s">
         <v>263</v>
       </c>
@@ -4659,7 +4652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" ht="144" spans="1:12">
+    <row r="65" ht="135" spans="1:12">
       <c r="A65" s="3" t="s">
         <v>267</v>
       </c>
@@ -4697,7 +4690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" ht="144" spans="1:12">
+    <row r="66" ht="135" spans="1:12">
       <c r="A66" s="3" t="s">
         <v>267</v>
       </c>
@@ -4735,7 +4728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" ht="144" spans="1:12">
+    <row r="67" ht="135" spans="1:12">
       <c r="A67" s="3" t="s">
         <v>267</v>
       </c>
@@ -4773,7 +4766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" ht="144" spans="1:12">
+    <row r="68" ht="135" spans="1:12">
       <c r="A68" s="3" t="s">
         <v>267</v>
       </c>
@@ -4811,7 +4804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" ht="144" spans="1:12">
+    <row r="69" ht="135" spans="1:12">
       <c r="A69" s="3" t="s">
         <v>267</v>
       </c>
@@ -4849,7 +4842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" ht="144" spans="1:12">
+    <row r="70" ht="135" spans="1:12">
       <c r="A70" s="3" t="s">
         <v>267</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" ht="230.4" spans="1:12">
+    <row r="71" ht="216" spans="1:12">
       <c r="A71" s="3" t="s">
         <v>288</v>
       </c>
@@ -4925,7 +4918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" ht="230.4" spans="1:12">
+    <row r="72" ht="216" spans="1:12">
       <c r="A72" s="3" t="s">
         <v>288</v>
       </c>
@@ -4963,7 +4956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" ht="230.4" spans="1:12">
+    <row r="73" ht="216" spans="1:12">
       <c r="A73" s="3" t="s">
         <v>288</v>
       </c>
@@ -5001,7 +4994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" ht="230.4" spans="1:12">
+    <row r="74" ht="216" spans="1:12">
       <c r="A74" s="3" t="s">
         <v>288</v>
       </c>
@@ -5039,7 +5032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" ht="72" spans="1:12">
+    <row r="75" ht="67.5" spans="1:12">
       <c r="A75" s="3" t="s">
         <v>301</v>
       </c>
@@ -5077,7 +5070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" ht="86.4" spans="1:12">
+    <row r="76" ht="81" spans="1:12">
       <c r="A76" s="3" t="s">
         <v>301</v>
       </c>
@@ -5115,7 +5108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" ht="86.4" spans="1:12">
+    <row r="77" ht="81" spans="1:12">
       <c r="A77" s="3" t="s">
         <v>301</v>
       </c>
@@ -5153,7 +5146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" ht="144" spans="1:12">
+    <row r="78" ht="135" spans="1:12">
       <c r="A78" s="3" t="s">
         <v>310</v>
       </c>
@@ -5191,7 +5184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" ht="144" spans="1:12">
+    <row r="79" ht="135" spans="1:12">
       <c r="A79" s="3" t="s">
         <v>310</v>
       </c>
@@ -5229,7 +5222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" ht="115.2" spans="1:12">
+    <row r="80" ht="108" spans="1:12">
       <c r="A80" s="3" t="s">
         <v>317</v>
       </c>
@@ -5267,7 +5260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" ht="72" spans="1:12">
+    <row r="81" ht="67.5" spans="1:12">
       <c r="A81" s="3" t="s">
         <v>323</v>
       </c>
@@ -5305,7 +5298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" ht="72" spans="1:12">
+    <row r="82" ht="67.5" spans="1:12">
       <c r="A82" s="3" t="s">
         <v>323</v>
       </c>
@@ -5343,7 +5336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" ht="72" spans="1:12">
+    <row r="83" ht="67.5" spans="1:12">
       <c r="A83" s="3" t="s">
         <v>323</v>
       </c>
@@ -5381,7 +5374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" ht="86.4" spans="1:12">
+    <row r="84" ht="81" spans="1:12">
       <c r="A84" s="3" t="s">
         <v>333</v>
       </c>
@@ -5419,7 +5412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" ht="187.2" spans="1:12">
+    <row r="85" ht="175.5" spans="1:12">
       <c r="A85" s="3" t="s">
         <v>340</v>
       </c>
@@ -5457,7 +5450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" ht="187.2" spans="1:12">
+    <row r="86" ht="175.5" spans="1:12">
       <c r="A86" s="3" t="s">
         <v>340</v>
       </c>
@@ -5495,7 +5488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" ht="187.2" spans="1:12">
+    <row r="87" ht="175.5" spans="1:12">
       <c r="A87" s="3" t="s">
         <v>340</v>
       </c>
@@ -5533,7 +5526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" ht="187.2" spans="1:12">
+    <row r="88" ht="175.5" spans="1:12">
       <c r="A88" s="3" t="s">
         <v>340</v>
       </c>
